--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_244.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_244.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1607142857142857</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.168956043956044</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(57.673129, 63.489727)]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(76.889251, 80.407074)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:42.174263', '0:01:51.798209')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1233396584440228</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
-        </is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_37</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1553956834532374</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E']]</t>
+          <t>[['G:min7', 'C:min7', 'F:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.850181, 33.826235)]</t>
+          <t>[['A:min7', 'D:min7', 'G:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.172811, 51.200022)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:02.200000', '0:00:03.400000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:35.150000', '0:00:41.300000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2196969696969697</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98)]</t>
+          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(19.82, 29.1)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06570048309178744</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>jaah_5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_12</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01323174083685967</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G', 'G']]</t>
+          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(17.68, 19.25)]</t>
+          <t>[['G:min7', 'C:7', 'F:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(54.46, 61.21)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:20.080000', '0:00:23.280000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:17.890000', '0:00:21.530000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1365853658536585</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F/5', 'Eb/5', 'Bb'], ['Eb/5', 'Bb', 'Bb'], ['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1174089068825911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E/4', 'D/5', 'A'], ['D', 'A', 'A'], ['D/5', 'E/4', 'A']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.324217, 10.040952), (8.624535, 15.172562), (44.917324, 48.272607)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.311, 37.28), (37.28, 39.869), (5.544, 8.638)]</t>
+          <t>[('0:00:24.387324', '0:00:27.452358'), ('0:00:03.744784', '0:00:06.774988')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:13.120000', '0:00:19.960000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09064112011790715</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G'], ['G', 'G', 'D:7']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6389452332657202</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A'], ['F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07), (11.55, 15.79)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(17.36, 19.54), (17.94, 20.12)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:40.074104', '0:01:00.217414')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:59.623968', '0:02:19.024240')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08437500000000001</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D/5'], ['A', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.922018, 6.206099), (0.421247, 4.824512)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(21.722199, 26.760929), (65.81034, 71.679931)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_209</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09935897435897437</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(34.615714, 38.714036)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(60.021904, 67.35941)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.206140350877193</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(4.155032, 7.525011)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06719457013574662</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb/2', 'F', 'G:min7'], ['D:min', 'A:7', 'D:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(64.32, 66.92), (43.18, 45.1)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(82.007, 87.045), (36.711, 39.787)]</t>
+          <t>[('0:00:07.646772', '0:00:12.917702')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.0, 17.64)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.7, 23.04)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2870813397129187</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'E', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(87.94, 91.12)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.051451, 41.036031)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(132.38, 134.0), (128.76, 133.56)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(24.401147, 28.461467), (8.158789, 22.58999)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3071428571428572</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.44, 33.82)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09200310559006211</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G'], ['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C'], ['C', 'C/b7', 'F']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(67.10043, 74.101247), (0.497838, 5.89263)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(41.655, 46.22), (35.532, 40.124)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.17907, 21.844739)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
